--- a/backend/risk_system.xlsx
+++ b/backend/risk_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURBHI\Termsheet_Validation\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9ABE9A-A856-42D7-B5AB-5B6FDE4D61E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A704D3-8971-46B9-8C80-3E1A31636103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="380" windowWidth="19200" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="19200" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interest_risk_swap" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>tradeId</t>
   </si>
@@ -34,9 +34,6 @@
     <t>notional_amount</t>
   </si>
   <si>
-    <t>fixed_date</t>
-  </si>
-  <si>
     <t>floating_rate_index</t>
   </si>
   <si>
@@ -55,41 +52,32 @@
     <t>counterparty</t>
   </si>
   <si>
-    <t>SWAP67890</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>hel</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>SWAP67891</t>
-  </si>
-  <si>
-    <t>SWAP67892</t>
-  </si>
-  <si>
-    <t>SWAP67893</t>
-  </si>
-  <si>
-    <t>SWAP67894</t>
-  </si>
-  <si>
-    <t>SWAP67895</t>
-  </si>
-  <si>
-    <t>SWAP67896</t>
+    <t>SWAP00127</t>
+  </si>
+  <si>
+    <t>fixed_rate</t>
+  </si>
+  <si>
+    <t>EURIBOR</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>ACT/360</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>EUR-EURIBOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +96,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,10 +130,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,17 +450,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A727E73B-5A74-4102-8D2A-63853DCA8320}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" customWidth="1"/>
     <col min="3" max="3" width="17.1796875" customWidth="1"/>
     <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -465,91 +481,145 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45519</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45916</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8000000</v>
+      </c>
+      <c r="E2" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
